--- a/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/exemption_request/002_Exemption_Request.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\exemption_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176E3D56-588A-4FB9-B05A-AEA15EA1295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017BAF15-5352-4474-92A2-EF9BDF313816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,9 +790,6 @@
     <t>{"work_state": "COMPLETED"}</t>
   </si>
   <si>
-    <t>{"project_state": "PRE_CONSTRUCTION"}</t>
-  </si>
-  <si>
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>{"work_type": 6}</t>
+  </si>
+  <si>
+    <t>{"project_state_id": 13}</t>
   </si>
 </sst>
 </file>
@@ -7586,7 +7586,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E131" s="4" t="str">
         <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$7,2,FALSE))</f>
@@ -7833,7 +7833,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8588,10 +8588,10 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D145" sqref="D145"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8791,7 +8791,7 @@
         <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -8815,7 +8815,7 @@
         <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -8836,10 +8836,10 @@
         <v>182</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="2">
         <v>9</v>
@@ -8860,10 +8860,10 @@
         <v>183</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
@@ -9103,7 +9103,7 @@
         <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -9367,7 +9367,7 @@
         <v>192</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G32" s="2">
         <v>31</v>
@@ -9391,7 +9391,7 @@
         <v>188</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G33" s="2">
         <v>32</v>
@@ -9412,10 +9412,10 @@
         <v>189</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="G34" s="2">
         <v>33</v>
@@ -9439,7 +9439,7 @@
         <v>191</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" s="2">
         <v>34</v>
@@ -9703,7 +9703,7 @@
         <v>193</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G46" s="2">
         <v>45</v>
@@ -9847,7 +9847,7 @@
         <v>196</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G52" s="2">
         <v>51</v>
@@ -9871,7 +9871,7 @@
         <v>197</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G53" s="2">
         <v>52</v>
@@ -9895,7 +9895,7 @@
         <v>198</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G54" s="2">
         <v>53</v>
@@ -10132,10 +10132,10 @@
         <v>189</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>267</v>
       </c>
       <c r="G64" s="2">
         <v>63</v>
@@ -10159,7 +10159,7 @@
         <v>191</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G65" s="2">
         <v>64</v>
@@ -10180,10 +10180,10 @@
         <v>184</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G66" s="2">
         <v>65</v>
@@ -10276,10 +10276,10 @@
         <v>184</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G70" s="2">
         <v>69</v>
@@ -12538,26 +12538,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2C1F259FB5F1743B0AABDE6E19F3587" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="887a673b2990ad08cbc7da39ce2412c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9da97c54-3012-49fd-8896-0db67528b2a3" xmlns:ns3="a10d9883-6879-4486-9776-c67b50dca88e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e318ef65ff943bae84f18b0edea6bb11" ns2:_="" ns3:_="">
     <xsd:import namespace="9da97c54-3012-49fd-8896-0db67528b2a3"/>
@@ -12786,26 +12766,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
-    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9da97c54-3012-49fd-8896-0db67528b2a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a10d9883-6879-4486-9776-c67b50dca88e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ADD561-5989-478E-9183-7F2CBAD25CE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12822,4 +12803,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D293B7-B48B-419C-B420-25F67C616F6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1383CF79-2DB2-40C6-9ED2-5A25DF7BC797}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9da97c54-3012-49fd-8896-0db67528b2a3"/>
+    <ds:schemaRef ds:uri="a10d9883-6879-4486-9776-c67b50dca88e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>